--- a/output/xlsx/expenses_clean_grouped.xlsx
+++ b/output/xlsx/expenses_clean_grouped.xlsx
@@ -432,7 +432,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Generated (MT): 2026-01-09 13:15:50 MT</t>
+          <t>Generated (MT): 2026-01-17 10:47:27 MT</t>
         </is>
       </c>
     </row>
